--- a/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A6C9CF-3D5B-492C-BB4C-AB1B7F5D0ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DEBC39-639D-49E7-834C-081CE82530B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DEBC39-639D-49E7-834C-081CE82530B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D34399-BCB4-4AB8-BB28-6E35BF7CA4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D34399-BCB4-4AB8-BB28-6E35BF7CA4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335F99FB-0387-4937-A49E-1CA44DFF3476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335F99FB-0387-4937-A49E-1CA44DFF3476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C268875-D320-48E8-97C2-BFA1E931C48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C268875-D320-48E8-97C2-BFA1E931C48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912B9173-F0AD-4FCE-AE06-56BDCA5002D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912B9173-F0AD-4FCE-AE06-56BDCA5002D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4591A5FC-20F9-4F6C-B5C3-6872700C5CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C470F8-C782-440E-A479-A19F94376D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE66D63-72A4-45D8-B277-62E778425848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="184">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -1226,7 +1226,7 @@
   <dimension ref="B2:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1454,8 +1454,12 @@
         <v>180</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1482,8 +1486,12 @@
         <v>181</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>

--- a/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE66D63-72A4-45D8-B277-62E778425848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F5F766-0F3E-493E-A080-D34BCC079899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F908396-3AEA-44F9-9106-6329409899DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B93A2D6-4C48-4553-B9F0-1AE33D8E1C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="misc" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="169">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>TAct</t>
-  </si>
-  <si>
-    <t>PJ</t>
   </si>
   <si>
     <t>GW</t>
@@ -428,193 +425,190 @@
     <t>~FI_T: USD10~FX~ACT_BND</t>
   </si>
   <si>
-    <t>Set</t>
+    <t>invcost</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
   <si>
     <t>timeslicelevel</t>
   </si>
   <si>
-    <t>description</t>
+    <t>EN_SPV_14_c02_BGR</t>
+  </si>
+  <si>
+    <t>Utility PV - CF Class-14 Cost Class-c02 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_SPV_15_c02_BGR</t>
+  </si>
+  <si>
+    <t>Utility PV - CF Class-15 Cost Class-c02 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_SPV_16_c01_BGR</t>
+  </si>
+  <si>
+    <t>Utility PV - CF Class-16 Cost Class-c01 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_WON_19_c02_BGR</t>
+  </si>
+  <si>
+    <t>Wind Onshore - CF Class-19 Cost Class-c02 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_WON_19_c03_BGR</t>
+  </si>
+  <si>
+    <t>Wind Onshore - CF Class-19 Cost Class-c03 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_WON_20_c02_BGR</t>
+  </si>
+  <si>
+    <t>Wind Onshore - CF Class-20 Cost Class-c02 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_WON_20_c03_BGR</t>
+  </si>
+  <si>
+    <t>Wind Onshore - CF Class-20 Cost Class-c03 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_WON_21_c02_BGR</t>
+  </si>
+  <si>
+    <t>Wind Onshore - CF Class-21 Cost Class-c02 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_WON_23_c02_BGR</t>
+  </si>
+  <si>
+    <t>Wind Onshore - CF Class-23 Cost Class-c02 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_WON_23_c03_BGR</t>
+  </si>
+  <si>
+    <t>Wind Onshore - CF Class-23 Cost Class-c03 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_WON_24_c02_BGR</t>
+  </si>
+  <si>
+    <t>Wind Onshore - CF Class-24 Cost Class-c02 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_WON_24_c03_BGR</t>
+  </si>
+  <si>
+    <t>Wind Onshore - CF Class-24 Cost Class-c03 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_WON_25_c02_BGR</t>
+  </si>
+  <si>
+    <t>Wind Onshore - CF Class-25 Cost Class-c02 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_WON_25_c03_BGR</t>
+  </si>
+  <si>
+    <t>Wind Onshore - CF Class-25 Cost Class-c03 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_WON_26_c01_BGR</t>
+  </si>
+  <si>
+    <t>Wind Onshore - CF Class-26 Cost Class-c01 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_WON_26_c03_BGR</t>
+  </si>
+  <si>
+    <t>Wind Onshore - CF Class-26 Cost Class-c03 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_WON_27_c03_BGR</t>
+  </si>
+  <si>
+    <t>Wind Onshore - CF Class-27 Cost Class-c03 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_WON_29_c01_BGR</t>
+  </si>
+  <si>
+    <t>Wind Onshore - CF Class-29 Cost Class-c01 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_WOF_30_c02_BGR</t>
+  </si>
+  <si>
+    <t>Wind Offshore - CF Class-30 Cost Class-c02 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_WOF_31_c02_BGR</t>
+  </si>
+  <si>
+    <t>Wind Offshore - CF Class-31 Cost Class-c02 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_WOF_32_c02_BGR</t>
+  </si>
+  <si>
+    <t>Wind Offshore - CF Class-32 Cost Class-c02 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_WOF_33_c02_BGR</t>
+  </si>
+  <si>
+    <t>Wind Offshore - CF Class-33 Cost Class-c02 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_WOF_34_c02_BGR</t>
+  </si>
+  <si>
+    <t>Wind Offshore - CF Class-34 Cost Class-c02 - Bulgaria</t>
+  </si>
+  <si>
+    <t>EN_Hydro_BGR-1</t>
+  </si>
+  <si>
+    <t>New Hydro Potential - Bulgaria - Step 1</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>EN_Hydro_BGR-2</t>
+  </si>
+  <si>
+    <t>New Hydro Potential - Bulgaria - Step 2</t>
+  </si>
+  <si>
+    <t>EN_Hydro_BGR-3</t>
+  </si>
+  <si>
+    <t>New Hydro Potential - Bulgaria - Step 3</t>
+  </si>
+  <si>
+    <t>CAP_BND</t>
+  </si>
+  <si>
+    <t>INVCOST~USD21_alt</t>
+  </si>
+  <si>
+    <t>AF~FX</t>
   </si>
   <si>
     <t>ELC_Sol-BGR</t>
   </si>
   <si>
-    <t>Solar electricity produced in - Bulgaria</t>
-  </si>
-  <si>
     <t>ELC_Win-BGR</t>
-  </si>
-  <si>
-    <t>Wind electricity produced in - Bulgaria</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>EN_SPV_14_c02_BGR</t>
-  </si>
-  <si>
-    <t>Utility PV - CF Class-14 Cost Class-c02 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_SPV_15_c02_BGR</t>
-  </si>
-  <si>
-    <t>Utility PV - CF Class-15 Cost Class-c02 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_SPV_16_c01_BGR</t>
-  </si>
-  <si>
-    <t>Utility PV - CF Class-16 Cost Class-c01 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_WON_19_c02_BGR</t>
-  </si>
-  <si>
-    <t>Wind Onshore - CF Class-19 Cost Class-c02 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_WON_19_c03_BGR</t>
-  </si>
-  <si>
-    <t>Wind Onshore - CF Class-19 Cost Class-c03 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_WON_20_c02_BGR</t>
-  </si>
-  <si>
-    <t>Wind Onshore - CF Class-20 Cost Class-c02 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_WON_20_c03_BGR</t>
-  </si>
-  <si>
-    <t>Wind Onshore - CF Class-20 Cost Class-c03 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_WON_21_c02_BGR</t>
-  </si>
-  <si>
-    <t>Wind Onshore - CF Class-21 Cost Class-c02 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_WON_23_c02_BGR</t>
-  </si>
-  <si>
-    <t>Wind Onshore - CF Class-23 Cost Class-c02 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_WON_23_c03_BGR</t>
-  </si>
-  <si>
-    <t>Wind Onshore - CF Class-23 Cost Class-c03 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_WON_24_c02_BGR</t>
-  </si>
-  <si>
-    <t>Wind Onshore - CF Class-24 Cost Class-c02 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_WON_24_c03_BGR</t>
-  </si>
-  <si>
-    <t>Wind Onshore - CF Class-24 Cost Class-c03 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_WON_25_c02_BGR</t>
-  </si>
-  <si>
-    <t>Wind Onshore - CF Class-25 Cost Class-c02 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_WON_25_c03_BGR</t>
-  </si>
-  <si>
-    <t>Wind Onshore - CF Class-25 Cost Class-c03 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_WON_26_c01_BGR</t>
-  </si>
-  <si>
-    <t>Wind Onshore - CF Class-26 Cost Class-c01 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_WON_26_c03_BGR</t>
-  </si>
-  <si>
-    <t>Wind Onshore - CF Class-26 Cost Class-c03 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_WON_27_c03_BGR</t>
-  </si>
-  <si>
-    <t>Wind Onshore - CF Class-27 Cost Class-c03 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_WON_29_c01_BGR</t>
-  </si>
-  <si>
-    <t>Wind Onshore - CF Class-29 Cost Class-c01 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_WOF_30_c02_BGR</t>
-  </si>
-  <si>
-    <t>Wind Offshore - CF Class-30 Cost Class-c02 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_WOF_31_c02_BGR</t>
-  </si>
-  <si>
-    <t>Wind Offshore - CF Class-31 Cost Class-c02 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_WOF_32_c02_BGR</t>
-  </si>
-  <si>
-    <t>Wind Offshore - CF Class-32 Cost Class-c02 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_WOF_33_c02_BGR</t>
-  </si>
-  <si>
-    <t>Wind Offshore - CF Class-33 Cost Class-c02 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_WOF_34_c02_BGR</t>
-  </si>
-  <si>
-    <t>Wind Offshore - CF Class-34 Cost Class-c02 - Bulgaria</t>
-  </si>
-  <si>
-    <t>EN_Hydro_BGR-1</t>
-  </si>
-  <si>
-    <t>New Hydro Potential - Bulgaria - Step 1</t>
-  </si>
-  <si>
-    <t>EN_Hydro_BGR-2</t>
-  </si>
-  <si>
-    <t>New Hydro Potential - Bulgaria - Step 2</t>
-  </si>
-  <si>
-    <t>EN_Hydro_BGR-3</t>
-  </si>
-  <si>
-    <t>New Hydro Potential - Bulgaria - Step 3</t>
-  </si>
-  <si>
-    <t>CAP_BND</t>
-  </si>
-  <si>
-    <t>INVCOST~USD21_alt</t>
-  </si>
-  <si>
-    <t>AF~FX</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034C1C47-C7B1-48B4-9602-2B825216B37E}">
   <dimension ref="B2:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -1189,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1213,10 +1209,10 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>2</v>
@@ -1231,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" s="1">
         <v>2022</v>
@@ -1242,26 +1238,26 @@
     </row>
     <row r="4" spans="2:20">
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
       </c>
       <c r="J4" s="1" t="str">
         <f>C4</f>
         <v>ElcAgg_Solar</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
@@ -1275,19 +1271,19 @@
     </row>
     <row r="5" spans="2:20">
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1296,7 +1292,7 @@
         <v>ElcAgg_Wind</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
@@ -1310,17 +1306,17 @@
     </row>
     <row r="6" spans="2:20">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1330,10 +1326,10 @@
         <v>elc_demand</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
@@ -1345,22 +1341,22 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="T6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:20">
       <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1371,7 +1367,7 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1386,24 +1382,24 @@
     </row>
     <row r="8" spans="2:20">
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1418,24 +1414,24 @@
     </row>
     <row r="9" spans="2:20">
       <c r="B9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1460,7 +1456,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1485,7 +1481,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1510,7 +1506,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1535,7 +1531,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1560,7 +1556,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1585,7 +1581,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1610,7 +1606,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1629,7 +1625,7 @@
         <v>Trd_electricity import</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1644,7 +1640,7 @@
         <v>Trd_electricity export</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1660,1082 +1656,1027 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5417F31-D792-47CD-82F2-E942FCB1F74A}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="11.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.265625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17.25" thickBot="1">
+    <row r="1" spans="1:14" ht="17.25" thickBot="1">
       <c r="A1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="14.65" thickTop="1">
-      <c r="A2" t="s">
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="14.65" thickTop="1">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="I2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="K2" t="s">
         <v>3</v>
       </c>
-      <c r="R2" t="s">
-        <v>168</v>
-      </c>
-      <c r="S2" t="s">
-        <v>169</v>
-      </c>
-      <c r="T2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="L2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M2" t="s">
+        <v>165</v>
+      </c>
+      <c r="N2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
-        <v>116</v>
-      </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" t="s">
-        <v>116</v>
-      </c>
-      <c r="P3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>111</v>
-      </c>
-      <c r="R3">
+        <v>167</v>
+      </c>
+      <c r="L3">
         <v>30.223499999999998</v>
       </c>
-      <c r="S3">
+      <c r="M3">
         <v>88.954992178647728</v>
       </c>
-      <c r="T3">
+      <c r="N3">
         <v>0.14401732095885653</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4">
+        <v>6.0502499999999992</v>
+      </c>
+      <c r="M4">
+        <v>88.954992178647728</v>
+      </c>
+      <c r="N4">
+        <v>0.14942568488905417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5">
+        <v>0.17324999999999999</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
         <v>118</v>
       </c>
-      <c r="I4" t="s">
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>168</v>
+      </c>
+      <c r="L6">
+        <v>11.48175</v>
+      </c>
+      <c r="M6">
+        <v>80.785656162241295</v>
+      </c>
+      <c r="N6">
+        <v>0.18773838918283361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>119</v>
       </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L7">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="M7">
+        <v>105.74751621237203</v>
+      </c>
+      <c r="N7">
+        <v>0.19354411764705881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L8">
+        <v>4.2322500000000005</v>
+      </c>
+      <c r="M8">
+        <v>80.785656162241295</v>
+      </c>
+      <c r="N8">
+        <v>0.19920556441609075</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>168</v>
+      </c>
+      <c r="L9">
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="M9">
+        <v>105.74751621237203</v>
+      </c>
+      <c r="N9">
+        <v>0.19529532163742691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>168</v>
+      </c>
+      <c r="L10">
+        <v>0.57374999999999998</v>
+      </c>
+      <c r="M10">
+        <v>80.785656162241295</v>
+      </c>
+      <c r="N10">
+        <v>0.20701699346405228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>168</v>
+      </c>
+      <c r="L11">
+        <v>1.7055000000000002</v>
+      </c>
+      <c r="M11">
+        <v>80.785656162241295</v>
+      </c>
+      <c r="N11">
+        <v>0.23033377308707123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>168</v>
+      </c>
+      <c r="L12">
+        <v>0.44099999999999995</v>
+      </c>
+      <c r="M12">
+        <v>105.74751621237203</v>
+      </c>
+      <c r="N12">
+        <v>0.22762585034013602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>168</v>
+      </c>
+      <c r="L13">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="M13">
+        <v>80.785656162241295</v>
+      </c>
+      <c r="N13">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>168</v>
+      </c>
+      <c r="L14">
+        <v>7.7249999999999999E-2</v>
+      </c>
+      <c r="M14">
+        <v>105.74751621237203</v>
+      </c>
+      <c r="N14">
+        <v>0.23599999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15">
+        <v>1.4887499999999996</v>
+      </c>
+      <c r="M15">
+        <v>80.785656162241295</v>
+      </c>
+      <c r="N15">
+        <v>0.24900000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>168</v>
+      </c>
+      <c r="L16">
+        <v>0.44174999999999998</v>
+      </c>
+      <c r="M16">
+        <v>105.74751621237203</v>
+      </c>
+      <c r="N16">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17">
+        <v>1.4092500000000001</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.26399574241617885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="M18">
+        <v>105.74751621237203</v>
+      </c>
+      <c r="N18">
+        <v>0.25554385964912285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="M19">
+        <v>105.74751621237203</v>
+      </c>
+      <c r="N19">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20">
+        <v>4.2682500000000001</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.28862572482867682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21">
+        <v>9.8137499999999989</v>
+      </c>
+      <c r="M21">
+        <v>199.69488040104588</v>
+      </c>
+      <c r="N21">
+        <v>0.30174986625907529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" t="s">
+        <v>168</v>
+      </c>
+      <c r="L22">
+        <v>1.4917499999999999</v>
+      </c>
+      <c r="M22">
+        <v>199.69488040104588</v>
+      </c>
+      <c r="N22">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" t="s">
+        <v>168</v>
+      </c>
+      <c r="L23">
+        <v>5.625</v>
+      </c>
+      <c r="M23">
+        <v>199.69488040104588</v>
+      </c>
+      <c r="N23">
+        <v>0.31925559999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" t="s">
+        <v>168</v>
+      </c>
+      <c r="L24">
+        <v>26.755499999999998</v>
+      </c>
+      <c r="M24">
+        <v>199.69488040104588</v>
+      </c>
+      <c r="N24">
+        <v>0.3300934854515894</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>155</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
+        <v>168</v>
+      </c>
+      <c r="L25">
+        <v>7.2172499999999999</v>
+      </c>
+      <c r="M25">
+        <v>199.69488040104588</v>
+      </c>
+      <c r="N25">
+        <v>0.33631892341265718</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>157</v>
+      </c>
+      <c r="J26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" t="s">
         <v>20</v>
       </c>
-      <c r="O4" t="s">
-        <v>118</v>
-      </c>
-      <c r="P4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>111</v>
-      </c>
-      <c r="R4">
-        <v>6.0502499999999992</v>
-      </c>
-      <c r="S4">
-        <v>88.954992178647728</v>
-      </c>
-      <c r="T4">
-        <v>0.14942568488905417</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="L26">
+        <v>0.41699999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>160</v>
+      </c>
+      <c r="J27" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" t="s">
         <v>20</v>
       </c>
-      <c r="O5" t="s">
-        <v>120</v>
-      </c>
-      <c r="P5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>111</v>
-      </c>
-      <c r="R5">
-        <v>0.17324999999999999</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0.156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="L27">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>162</v>
+      </c>
+      <c r="J28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" t="s">
         <v>20</v>
       </c>
-      <c r="O6" t="s">
-        <v>122</v>
-      </c>
-      <c r="P6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>113</v>
-      </c>
-      <c r="R6">
-        <v>11.48175</v>
-      </c>
-      <c r="S6">
-        <v>80.785656162241295</v>
-      </c>
-      <c r="T6">
-        <v>0.18773838918283361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>113</v>
-      </c>
-      <c r="R7">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="S7">
-        <v>105.74751621237203</v>
-      </c>
-      <c r="T7">
-        <v>0.19354411764705881</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I8" t="s">
-        <v>127</v>
-      </c>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" t="s">
-        <v>126</v>
-      </c>
-      <c r="P8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>113</v>
-      </c>
-      <c r="R8">
-        <v>4.2322500000000005</v>
-      </c>
-      <c r="S8">
-        <v>80.785656162241295</v>
-      </c>
-      <c r="T8">
-        <v>0.19920556441609075</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I9" t="s">
-        <v>129</v>
-      </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" t="s">
-        <v>128</v>
-      </c>
-      <c r="P9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>113</v>
-      </c>
-      <c r="R9">
-        <v>0.25650000000000001</v>
-      </c>
-      <c r="S9">
-        <v>105.74751621237203</v>
-      </c>
-      <c r="T9">
-        <v>0.19529532163742691</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10" t="s">
-        <v>131</v>
-      </c>
-      <c r="J10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" t="s">
-        <v>130</v>
-      </c>
-      <c r="P10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>113</v>
-      </c>
-      <c r="R10">
-        <v>0.57374999999999998</v>
-      </c>
-      <c r="S10">
-        <v>80.785656162241295</v>
-      </c>
-      <c r="T10">
-        <v>0.20701699346405228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I11" t="s">
-        <v>133</v>
-      </c>
-      <c r="J11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" t="s">
-        <v>132</v>
-      </c>
-      <c r="P11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>113</v>
-      </c>
-      <c r="R11">
-        <v>1.7055000000000002</v>
-      </c>
-      <c r="S11">
-        <v>80.785656162241295</v>
-      </c>
-      <c r="T11">
-        <v>0.23033377308707123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" t="s">
-        <v>135</v>
-      </c>
-      <c r="J12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" t="s">
-        <v>134</v>
-      </c>
-      <c r="P12" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>113</v>
-      </c>
-      <c r="R12">
-        <v>0.44099999999999995</v>
-      </c>
-      <c r="S12">
-        <v>105.74751621237203</v>
-      </c>
-      <c r="T12">
-        <v>0.22762585034013602</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>136</v>
-      </c>
-      <c r="I13" t="s">
-        <v>137</v>
-      </c>
-      <c r="J13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" t="s">
-        <v>136</v>
-      </c>
-      <c r="P13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>113</v>
-      </c>
-      <c r="R13">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="S13">
-        <v>80.785656162241295</v>
-      </c>
-      <c r="T13">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s">
-        <v>138</v>
-      </c>
-      <c r="I14" t="s">
-        <v>139</v>
-      </c>
-      <c r="J14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" t="s">
-        <v>138</v>
-      </c>
-      <c r="P14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>113</v>
-      </c>
-      <c r="R14">
-        <v>7.7249999999999999E-2</v>
-      </c>
-      <c r="S14">
-        <v>105.74751621237203</v>
-      </c>
-      <c r="T14">
-        <v>0.23599999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I15" t="s">
-        <v>141</v>
-      </c>
-      <c r="J15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" t="s">
-        <v>140</v>
-      </c>
-      <c r="P15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>113</v>
-      </c>
-      <c r="R15">
-        <v>1.4887499999999996</v>
-      </c>
-      <c r="S15">
-        <v>80.785656162241295</v>
-      </c>
-      <c r="T15">
-        <v>0.24900000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s">
-        <v>142</v>
-      </c>
-      <c r="I16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" t="s">
-        <v>142</v>
-      </c>
-      <c r="P16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>113</v>
-      </c>
-      <c r="R16">
-        <v>0.44174999999999998</v>
-      </c>
-      <c r="S16">
-        <v>105.74751621237203</v>
-      </c>
-      <c r="T16">
-        <v>0.252</v>
-      </c>
-    </row>
-    <row r="17" spans="7:20">
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" t="s">
-        <v>145</v>
-      </c>
-      <c r="J17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" t="s">
-        <v>144</v>
-      </c>
-      <c r="P17" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>113</v>
-      </c>
-      <c r="R17">
-        <v>1.4092500000000001</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0.26399574241617885</v>
-      </c>
-    </row>
-    <row r="18" spans="7:20">
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" t="s">
-        <v>146</v>
-      </c>
-      <c r="P18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>113</v>
-      </c>
-      <c r="R18">
-        <v>8.5500000000000007E-2</v>
-      </c>
-      <c r="S18">
-        <v>105.74751621237203</v>
-      </c>
-      <c r="T18">
-        <v>0.25554385964912285</v>
-      </c>
-    </row>
-    <row r="19" spans="7:20">
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I19" t="s">
-        <v>149</v>
-      </c>
-      <c r="J19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" t="s">
-        <v>148</v>
-      </c>
-      <c r="P19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>113</v>
-      </c>
-      <c r="R19">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="S19">
-        <v>105.74751621237203</v>
-      </c>
-      <c r="T19">
-        <v>0.26900000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="7:20">
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" t="s">
-        <v>150</v>
-      </c>
-      <c r="I20" t="s">
-        <v>151</v>
-      </c>
-      <c r="J20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" t="s">
-        <v>150</v>
-      </c>
-      <c r="P20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>113</v>
-      </c>
-      <c r="R20">
-        <v>4.2682500000000001</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0.28862572482867682</v>
-      </c>
-    </row>
-    <row r="21" spans="7:20">
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" t="s">
-        <v>152</v>
-      </c>
-      <c r="I21" t="s">
-        <v>153</v>
-      </c>
-      <c r="J21" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" t="s">
-        <v>152</v>
-      </c>
-      <c r="P21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>113</v>
-      </c>
-      <c r="R21">
-        <v>9.8137499999999989</v>
-      </c>
-      <c r="S21">
-        <v>199.69488040104588</v>
-      </c>
-      <c r="T21">
-        <v>0.30174986625907529</v>
-      </c>
-    </row>
-    <row r="22" spans="7:20">
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" t="s">
-        <v>154</v>
-      </c>
-      <c r="I22" t="s">
-        <v>155</v>
-      </c>
-      <c r="J22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" t="s">
-        <v>154</v>
-      </c>
-      <c r="P22" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>113</v>
-      </c>
-      <c r="R22">
-        <v>1.4917499999999999</v>
-      </c>
-      <c r="S22">
-        <v>199.69488040104588</v>
-      </c>
-      <c r="T22">
-        <v>0.313</v>
-      </c>
-    </row>
-    <row r="23" spans="7:20">
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" t="s">
-        <v>156</v>
-      </c>
-      <c r="I23" t="s">
-        <v>157</v>
-      </c>
-      <c r="J23" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" t="s">
-        <v>156</v>
-      </c>
-      <c r="P23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>113</v>
-      </c>
-      <c r="R23">
-        <v>5.625</v>
-      </c>
-      <c r="S23">
-        <v>199.69488040104588</v>
-      </c>
-      <c r="T23">
-        <v>0.31925559999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="7:20">
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" t="s">
-        <v>158</v>
-      </c>
-      <c r="I24" t="s">
-        <v>159</v>
-      </c>
-      <c r="J24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" t="s">
-        <v>158</v>
-      </c>
-      <c r="P24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>113</v>
-      </c>
-      <c r="R24">
-        <v>26.755499999999998</v>
-      </c>
-      <c r="S24">
-        <v>199.69488040104588</v>
-      </c>
-      <c r="T24">
-        <v>0.3300934854515894</v>
-      </c>
-    </row>
-    <row r="25" spans="7:20">
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" t="s">
-        <v>160</v>
-      </c>
-      <c r="I25" t="s">
-        <v>161</v>
-      </c>
-      <c r="J25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" t="s">
-        <v>160</v>
-      </c>
-      <c r="P25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>113</v>
-      </c>
-      <c r="R25">
-        <v>7.2172499999999999</v>
-      </c>
-      <c r="S25">
-        <v>199.69488040104588</v>
-      </c>
-      <c r="T25">
-        <v>0.33631892341265718</v>
-      </c>
-    </row>
-    <row r="26" spans="7:20">
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" t="s">
-        <v>162</v>
-      </c>
-      <c r="I26" t="s">
-        <v>163</v>
-      </c>
-      <c r="J26" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" t="s">
-        <v>16</v>
-      </c>
-      <c r="O26" t="s">
-        <v>162</v>
-      </c>
-      <c r="P26" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>21</v>
-      </c>
-      <c r="R26">
-        <v>0.41699999999999993</v>
-      </c>
-    </row>
-    <row r="27" spans="7:20">
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" t="s">
-        <v>164</v>
-      </c>
-      <c r="I27" t="s">
-        <v>165</v>
-      </c>
-      <c r="J27" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" t="s">
-        <v>16</v>
-      </c>
-      <c r="O27" t="s">
-        <v>164</v>
-      </c>
-      <c r="P27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>21</v>
-      </c>
-      <c r="R27">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="7:20">
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" t="s">
-        <v>166</v>
-      </c>
-      <c r="I28" t="s">
-        <v>167</v>
-      </c>
-      <c r="J28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" t="s">
-        <v>16</v>
-      </c>
-      <c r="O28" t="s">
-        <v>166</v>
-      </c>
-      <c r="P28" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>21</v>
-      </c>
-      <c r="R28">
+      <c r="L28">
         <v>2.27</v>
       </c>
     </row>
@@ -2776,7 +2717,7 @@
   <sheetData>
     <row r="2" spans="2:23">
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2788,63 +2729,63 @@
     </row>
     <row r="3" spans="2:23">
       <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:23">
       <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="2:23">
       <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:23">
@@ -2862,7 +2803,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -2885,29 +2826,29 @@
         <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="N9" s="7">
         <f>J35</f>
@@ -2941,46 +2882,46 @@
         <v>3</v>
       </c>
       <c r="V9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="W9" t="s">
         <v>62</v>
-      </c>
-      <c r="W9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:23">
       <c r="B10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="K10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N10" s="10">
         <f>1/N17</f>
@@ -3004,35 +2945,35 @@
     <row r="11" spans="2:23">
       <c r="B11" s="6"/>
       <c r="C11" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N11" s="10">
         <f>4/24</f>
@@ -3058,17 +2999,17 @@
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N12" s="10">
         <v>1</v>
@@ -3091,10 +3032,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -3132,10 +3073,10 @@
     </row>
     <row r="14" spans="2:23">
       <c r="I14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N14" s="4">
         <f>J44</f>
@@ -3168,13 +3109,13 @@
     </row>
     <row r="15" spans="2:23">
       <c r="I15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N15" s="4">
         <v>1</v>
@@ -3188,10 +3129,10 @@
     </row>
     <row r="16" spans="2:23">
       <c r="I16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N16" s="10">
         <v>31.536000000000001</v>
@@ -3205,10 +3146,10 @@
     </row>
     <row r="17" spans="9:23">
       <c r="I17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N17" s="4">
         <v>0.85</v>
@@ -3222,19 +3163,19 @@
     </row>
     <row r="18" spans="9:23">
       <c r="I18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N18" s="10">
         <f>1/N25</f>
@@ -3257,19 +3198,19 @@
     </row>
     <row r="19" spans="9:23">
       <c r="I19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J19" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" t="s">
         <v>70</v>
       </c>
-      <c r="K19" t="s">
-        <v>71</v>
-      </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N19" s="4">
         <f>8/24</f>
@@ -3288,16 +3229,16 @@
     </row>
     <row r="20" spans="9:23">
       <c r="I20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N20" s="4">
         <v>1</v>
@@ -3311,10 +3252,10 @@
     </row>
     <row r="21" spans="9:23">
       <c r="I21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N21" s="4">
         <f>J49</f>
@@ -3347,10 +3288,10 @@
     </row>
     <row r="22" spans="9:23">
       <c r="I22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N22" s="4">
         <f>J53</f>
@@ -3383,13 +3324,13 @@
     </row>
     <row r="23" spans="9:23">
       <c r="I23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N23" s="4">
         <v>1</v>
@@ -3403,10 +3344,10 @@
     </row>
     <row r="24" spans="9:23">
       <c r="I24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N24" s="10">
         <v>31.536000000000001</v>
@@ -3420,10 +3361,10 @@
     </row>
     <row r="25" spans="9:23">
       <c r="I25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N25" s="4">
         <v>0.85</v>
@@ -3437,7 +3378,7 @@
     </row>
     <row r="31" spans="9:23" ht="15.75">
       <c r="I31" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
@@ -3449,7 +3390,7 @@
     </row>
     <row r="32" spans="9:23" ht="15.75">
       <c r="I32" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
@@ -3471,7 +3412,7 @@
     </row>
     <row r="34" spans="9:16" ht="15.75">
       <c r="I34" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
@@ -3507,7 +3448,7 @@
     </row>
     <row r="36" spans="9:16" ht="15.75">
       <c r="I36" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
@@ -3519,7 +3460,7 @@
     </row>
     <row r="37" spans="9:16" ht="15.75">
       <c r="I37" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
@@ -3531,7 +3472,7 @@
     </row>
     <row r="38" spans="9:16" ht="15.75">
       <c r="I38" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J38" s="17">
         <v>1363</v>
@@ -3557,7 +3498,7 @@
     </row>
     <row r="39" spans="9:16" ht="15.75">
       <c r="I39" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J39" s="17">
         <v>1363</v>
@@ -3583,7 +3524,7 @@
     </row>
     <row r="40" spans="9:16" ht="15.75">
       <c r="I40" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J40" s="17">
         <v>1363</v>
@@ -3609,7 +3550,7 @@
     </row>
     <row r="41" spans="9:16" ht="15.75">
       <c r="I41" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J41" s="18"/>
       <c r="K41" s="18"/>
@@ -3621,7 +3562,7 @@
     </row>
     <row r="42" spans="9:16" ht="15.75">
       <c r="I42" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J42" s="19">
         <v>34</v>
@@ -3647,7 +3588,7 @@
     </row>
     <row r="43" spans="9:16" ht="15.75">
       <c r="I43" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J43" s="19">
         <v>34</v>
@@ -3673,7 +3614,7 @@
     </row>
     <row r="44" spans="9:16" ht="15.75">
       <c r="I44" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J44" s="19">
         <v>34</v>
@@ -3699,7 +3640,7 @@
     </row>
     <row r="45" spans="9:16" ht="15.75">
       <c r="I45" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J45" s="18"/>
       <c r="K45" s="18"/>
@@ -3711,7 +3652,7 @@
     </row>
     <row r="46" spans="9:16" ht="15.75">
       <c r="I46" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J46" s="18"/>
       <c r="K46" s="18"/>
@@ -3723,7 +3664,7 @@
     </row>
     <row r="47" spans="9:16" ht="15.75">
       <c r="I47" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J47" s="17">
         <v>2470</v>
@@ -3749,7 +3690,7 @@
     </row>
     <row r="48" spans="9:16" ht="15.75">
       <c r="I48" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J48" s="17">
         <v>2470</v>
@@ -3775,7 +3716,7 @@
     </row>
     <row r="49" spans="9:16" ht="15.75">
       <c r="I49" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J49" s="17">
         <v>2470</v>
@@ -3801,7 +3742,7 @@
     </row>
     <row r="50" spans="9:16" ht="15.75">
       <c r="I50" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J50" s="18"/>
       <c r="K50" s="18"/>
@@ -3813,7 +3754,7 @@
     </row>
     <row r="51" spans="9:16" ht="15.75">
       <c r="I51" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J51" s="19">
         <v>62</v>
@@ -3839,7 +3780,7 @@
     </row>
     <row r="52" spans="9:16" ht="15.75">
       <c r="I52" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J52" s="19">
         <v>62</v>
@@ -3865,7 +3806,7 @@
     </row>
     <row r="53" spans="9:16" ht="15.75">
       <c r="I53" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J53" s="19">
         <v>62</v>
@@ -3901,7 +3842,7 @@
     </row>
     <row r="55" spans="9:16" ht="15.75">
       <c r="I55" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J55" s="12">
         <v>0.85</v>
@@ -3915,7 +3856,7 @@
     </row>
     <row r="56" spans="9:16" ht="15.75">
       <c r="I56" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
@@ -3927,7 +3868,7 @@
     </row>
     <row r="57" spans="9:16" ht="15.75">
       <c r="I57" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
@@ -3985,10 +3926,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12EA90E-43F0-4F26-A089-D51219939B11}">
-  <dimension ref="B3:X8"/>
+  <dimension ref="B3:Y8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4005,18 +3946,19 @@
     <col min="11" max="11" width="6.73046875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.9296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.46484375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37.9296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.06640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.9296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.46484375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37.9296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.06640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:24">
+    <row r="3" spans="2:25">
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -4024,7 +3966,7 @@
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
       <c r="H3" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
@@ -4034,18 +3976,19 @@
       <c r="N3" s="24"/>
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="24"/>
       <c r="S3" s="24"/>
       <c r="T3" s="24"/>
       <c r="U3" s="24"/>
       <c r="V3" s="24"/>
       <c r="W3" s="24"/>
       <c r="X3" s="24"/>
-    </row>
-    <row r="4" spans="2:24">
+      <c r="Y3" s="24"/>
+    </row>
+    <row r="4" spans="2:25">
       <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
@@ -4056,16 +3999,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s">
         <v>91</v>
-      </c>
-      <c r="H4" t="s">
-        <v>92</v>
       </c>
       <c r="I4">
         <v>2030</v>
@@ -4074,98 +4017,105 @@
         <v>0</v>
       </c>
       <c r="K4" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="M4" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="O4" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="24" t="s">
+      <c r="P4" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="W4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="T4" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="V4" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="W4" s="24" t="s">
+      <c r="Y4" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="X4" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24">
+    </row>
+    <row r="5" spans="2:25">
       <c r="B5" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="24">
         <v>0.90249999999999997</v>
       </c>
       <c r="L5" s="26">
+        <f>24/6</f>
         <v>4</v>
       </c>
       <c r="M5" s="24">
         <v>10</v>
       </c>
-      <c r="N5" s="26">
-        <v>3.6</v>
-      </c>
-      <c r="O5" s="24">
+      <c r="N5" s="24">
+        <v>150</v>
+      </c>
+      <c r="O5" s="26">
         <v>1</v>
       </c>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="R5" s="24" t="str">
+      <c r="P5" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="S5" s="24" t="str">
         <f>B5</f>
         <v>EV_Battery</v>
       </c>
-      <c r="S5" s="24" t="s">
-        <v>99</v>
-      </c>
       <c r="T5" s="24" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="U5" s="24" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="V5" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="W5" s="24"/>
+        <v>22</v>
+      </c>
+      <c r="W5" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="X5" s="24"/>
-    </row>
-    <row r="6" spans="2:24">
+      <c r="Y5" s="24"/>
+    </row>
+    <row r="6" spans="2:25">
       <c r="B6" s="24"/>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K6" s="24"/>
       <c r="L6" s="25">
@@ -4183,14 +4133,15 @@
       <c r="V6" s="24"/>
       <c r="W6" s="24"/>
       <c r="X6" s="24"/>
-    </row>
-    <row r="7" spans="2:24">
+      <c r="Y6" s="24"/>
+    </row>
+    <row r="7" spans="2:25">
       <c r="B7" s="24"/>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
@@ -4206,8 +4157,9 @@
       <c r="V7" s="24"/>
       <c r="W7" s="24"/>
       <c r="X7" s="24"/>
-    </row>
-    <row r="8" spans="2:24" ht="17.649999999999999">
+      <c r="Y7" s="24"/>
+    </row>
+    <row r="8" spans="2:25" ht="17.649999999999999">
       <c r="B8" s="21"/>
       <c r="E8" s="27"/>
       <c r="F8" t="str">
@@ -4219,7 +4171,7 @@
         <v>AuxStoIN</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -4232,15 +4184,16 @@
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
-      <c r="P8" s="21"/>
+      <c r="P8" s="22"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
-      <c r="V8" s="23"/>
+      <c r="V8" s="21"/>
       <c r="W8" s="23"/>
       <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B93A2D6-4C48-4553-B9F0-1AE33D8E1C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566FEE49-C2DC-44BC-B54F-A9725DB72BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566FEE49-C2DC-44BC-B54F-A9725DB72BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D869F2F-6739-4BB6-A4EC-334E1061E00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="misc" sheetId="7" r:id="rId1"/>
@@ -422,10 +422,10 @@
     <t>$/GJ</t>
   </si>
   <si>
-    <t>~FI_T: USD10~FX~ACT_BND</t>
-  </si>
-  <si>
     <t>invcost</t>
+  </si>
+  <si>
+    <t>~FI_T: USD21~FX~ACT_BND</t>
   </si>
   <si>
     <t>process</t>
@@ -1159,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034C1C47-C7B1-48B4-9602-2B825216B37E}">
   <dimension ref="B2:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1658,9 +1658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5417F31-D792-47CD-82F2-E942FCB1F74A}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
@@ -3928,7 +3926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12EA90E-43F0-4F26-A089-D51219939B11}">
   <dimension ref="B3:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -4026,7 +4024,7 @@
         <v>62</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O4" s="24" t="s">
         <v>94</v>

--- a/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D869F2F-6739-4BB6-A4EC-334E1061E00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA512368-AEA7-41DA-9E51-5E13CD43976A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA512368-AEA7-41DA-9E51-5E13CD43976A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD0E757-E1E6-4E28-B078-DB920F8E5FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
